--- a/table.xlsx
+++ b/table.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuandouwang/Documents/projects/flsim_min/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B02660A-AAA8-CC49-A87F-94B26675EDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B95ECE0-A3E9-5749-B590-36D7D77F974A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="1120" windowWidth="26740" windowHeight="15720" activeTab="1" xr2:uid="{E6B7B246-2A0E-F441-9126-828828B4D4F9}"/>
+    <workbookView xWindow="300" yWindow="880" windowWidth="26740" windowHeight="15720" activeTab="4" xr2:uid="{E6B7B246-2A0E-F441-9126-828828B4D4F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="non-iid, cnn_mnist recorded" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
-    <sheet name="non-iid, resnet18 recorded" sheetId="3" r:id="rId4"/>
+    <sheet name="detection perf -- mal ratio" sheetId="4" r:id="rId3"/>
+    <sheet name="detection perf -- non-iid degr " sheetId="3" r:id="rId4"/>
+    <sheet name="global acc, loss" sheetId="5" r:id="rId5"/>
+    <sheet name="fairness" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="412">
   <si>
     <t>Components</t>
   </si>
@@ -620,9 +622,6 @@
     <t>1. 2</t>
   </si>
   <si>
-    <t>&amp;</t>
-  </si>
-  <si>
     <t>Key findings</t>
   </si>
   <si>
@@ -707,9 +706,6 @@
     <t>5. no malicious nodes was rewarded and all malicious nodes were punished in our method, compared to the flame+incentive method.</t>
   </si>
   <si>
-    <t>round</t>
-  </si>
-  <si>
     <t>iid vs. Non-iid</t>
   </si>
   <si>
@@ -726,13 +722,568 @@
   </si>
   <si>
     <t>1.4</t>
+  </si>
+  <si>
+    <t>malicious ratio</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>0.933 ± 0.133</t>
+  </si>
+  <si>
+    <t>1.000 ± 0.000</t>
+  </si>
+  <si>
+    <t>0.900 ± 0.300</t>
+  </si>
+  <si>
+    <t>0.820 ± 0.360</t>
+  </si>
+  <si>
+    <t>0.940 ± 0.120</t>
+  </si>
+  <si>
+    <t>ours (non-iid, alpha = 0.5)</t>
+  </si>
+  <si>
+    <t>ours (non-iid, mal-frac = 0.3)</t>
+  </si>
+  <si>
+    <t>iid</t>
+  </si>
+  <si>
+    <t>0.783 ± 0.113</t>
+  </si>
+  <si>
+    <t>non-iid degree</t>
+  </si>
+  <si>
+    <t>ours (mal-frac=0.3)</t>
+  </si>
+  <si>
+    <t>0.881 ± 0.060</t>
+  </si>
+  <si>
+    <t>0.967 ± 0.067</t>
+  </si>
+  <si>
+    <t>0.889 ± 0.079</t>
+  </si>
+  <si>
+    <t>0.769 ± 0.389</t>
+  </si>
+  <si>
+    <t>0.783 ± 0.395</t>
+  </si>
+  <si>
+    <t>ours vs. Flame-incentives</t>
+  </si>
+  <si>
+    <t>0.450 ± 0.472</t>
+  </si>
+  <si>
+    <t>0.417 ± 0.479</t>
+  </si>
+  <si>
+    <t>0.500 ± 0.500</t>
+  </si>
+  <si>
+    <t>0.000 ± 0.000</t>
+  </si>
+  <si>
+    <t>flame+incentives (non-iid, alpha = 0.5)</t>
+  </si>
+  <si>
+    <t>0.733 ± 0.133</t>
+  </si>
+  <si>
+    <t>0.400 ± 0.490</t>
+  </si>
+  <si>
+    <t>0.080 ± 0.060</t>
+  </si>
+  <si>
+    <t>0.700 ± 0.000</t>
+  </si>
+  <si>
+    <t>0.833 ± 0.167</t>
+  </si>
+  <si>
+    <t>(global acc, loss)</t>
+  </si>
+  <si>
+    <t>acc=0.9405, loss=0.1894</t>
+  </si>
+  <si>
+    <t>acc=0.9497, loss=0.1563</t>
+  </si>
+  <si>
+    <t>acc=0.9453, loss=0.1819</t>
+  </si>
+  <si>
+    <t>acc=0.9287, loss=0.2375</t>
+  </si>
+  <si>
+    <t>flame+incentives (non-iid, mal-frac = 0.3)</t>
+  </si>
+  <si>
+    <t>acc=0.8141, loss=0.5977</t>
+  </si>
+  <si>
+    <t>acc=0.8617, loss=0.5295</t>
+  </si>
+  <si>
+    <t>acc=0.8346, loss=0.5417</t>
+  </si>
+  <si>
+    <t>acc=0.8362, loss=0.7155</t>
+  </si>
+  <si>
+    <t>acc=0.8968, loss=0.4626</t>
+  </si>
+  <si>
+    <t>acc=0.8681, loss=0.5613</t>
+  </si>
+  <si>
+    <t>acc=0.8147, loss=0.9414</t>
+  </si>
+  <si>
+    <t>acc=0.8617, loss=0.5342</t>
+  </si>
+  <si>
+    <t>acc=0.8381, loss=0.6189</t>
+  </si>
+  <si>
+    <t>acc=0.8135, loss=0.6923</t>
+  </si>
+  <si>
+    <t>acc=0.8650, loss=0.5009</t>
+  </si>
+  <si>
+    <t>acc=0.8427, loss=0.5525</t>
+  </si>
+  <si>
+    <t>acc=0.9478, loss=0.1647</t>
+  </si>
+  <si>
+    <t>acc=0.8172, loss=0.8189</t>
+  </si>
+  <si>
+    <t>acc=0.8901, loss=0.4881</t>
+  </si>
+  <si>
+    <t>acc=0.8587, loss=0.4916</t>
+  </si>
+  <si>
+    <t>acc=0.9515, loss=0.1646</t>
+  </si>
+  <si>
+    <t>acc=0.8606, loss=0.7356</t>
+  </si>
+  <si>
+    <t>acc=0.8657, loss=0.6218</t>
+  </si>
+  <si>
+    <t>acc=0.8585, loss=0.5584</t>
+  </si>
+  <si>
+    <t>acc=0.9467, loss=0.7507</t>
+  </si>
+  <si>
+    <t>acc=0.8715, loss=1.6826</t>
+  </si>
+  <si>
+    <t>acc=0.8638, loss=1.6469</t>
+  </si>
+  <si>
+    <t>acc=0.7430, loss=1.5105</t>
+  </si>
+  <si>
+    <t>acc=0.9312, loss=0.7275</t>
+  </si>
+  <si>
+    <t>acc=0.8536, loss=1.6074</t>
+  </si>
+  <si>
+    <t>acc=0.8926, loss=1.5902</t>
+  </si>
+  <si>
+    <t>acc=0.8233, loss=1.2601</t>
+  </si>
+  <si>
+    <t>acc=0.9220, loss=0.2815</t>
+  </si>
+  <si>
+    <t>acc=0.6768, loss=2.1828</t>
+  </si>
+  <si>
+    <t>acc=0.8965, loss=1.3129</t>
+  </si>
+  <si>
+    <t>acc=0.8982, loss=1.1124</t>
+  </si>
+  <si>
+    <t>acc=0.9157, loss=0.3452</t>
+  </si>
+  <si>
+    <t>acc=0.9302, loss=0.2572</t>
+  </si>
+  <si>
+    <t>acc=0.9220, loss=0.3508</t>
+  </si>
+  <si>
+    <t>acc=0.9353, loss=0.2466</t>
+  </si>
+  <si>
+    <t>Bar chart</t>
+  </si>
+  <si>
+    <t>Radar chart</t>
+  </si>
+  <si>
+    <t>Flame+incentives  (non-iid, mal-frac = 0.3)</t>
+  </si>
+  <si>
+    <t>Flame+incentives (non-iid, alpha = 0.5)</t>
+  </si>
+  <si>
+    <t>(benign fairness, malicious fairness)</t>
+  </si>
+  <si>
+    <t>(0.9868, 0)</t>
+  </si>
+  <si>
+    <t>(0.9864, 0)</t>
+  </si>
+  <si>
+    <t>(0.9868,0)</t>
+  </si>
+  <si>
+    <t>(0.9874,0)</t>
+  </si>
+  <si>
+    <t>(0.9873, 0)</t>
+  </si>
+  <si>
+    <t>(0.9472, 0.9007)</t>
+  </si>
+  <si>
+    <t>(0.9853, 0.8122)</t>
+  </si>
+  <si>
+    <t>(0.9844, 0.8683)</t>
+  </si>
+  <si>
+    <t>(0.9959, 0)</t>
+  </si>
+  <si>
+    <t>(0.7904, 0)</t>
+  </si>
+  <si>
+    <t>(0.9249, 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.9924, 0) </t>
+  </si>
+  <si>
+    <t>(0.9934, 0)</t>
+  </si>
+  <si>
+    <t>(0.8806, 0.1667)</t>
+  </si>
+  <si>
+    <t>(0.9650, 0.1667)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.9876,0) </t>
+  </si>
+  <si>
+    <t>(0.9948, 0)</t>
+  </si>
+  <si>
+    <t>(0.9384, 0)</t>
+  </si>
+  <si>
+    <t>(0.9673, 0)</t>
+  </si>
+  <si>
+    <t>(0.9895,0)</t>
+  </si>
+  <si>
+    <t>(0.9948,0)</t>
+  </si>
+  <si>
+    <t>(0.9442,0)</t>
+  </si>
+  <si>
+    <t>(0.9597,0)</t>
+  </si>
+  <si>
+    <t>(0.9909,0)</t>
+  </si>
+  <si>
+    <t>(0.9900,0)</t>
+  </si>
+  <si>
+    <t>(0.9851,0)</t>
+  </si>
+  <si>
+    <t>(0.9764,0)</t>
+  </si>
+  <si>
+    <t>(0.9926,0)</t>
+  </si>
+  <si>
+    <t>(0.9882,0)</t>
+  </si>
+  <si>
+    <t>(0.9855,0)</t>
+  </si>
+  <si>
+    <t>(0.9840,0)</t>
+  </si>
+  <si>
+    <t>(0.9929,0)</t>
+  </si>
+  <si>
+    <t>(0.9891,0)</t>
+  </si>
+  <si>
+    <t>(0.9810,0)</t>
+  </si>
+  <si>
+    <t>(0.9903,0)</t>
+  </si>
+  <si>
+    <t>(0.9819,0)</t>
+  </si>
+  <si>
+    <t>(0.9879,0)</t>
+  </si>
+  <si>
+    <t>(0.9798,0)</t>
+  </si>
+  <si>
+    <t>(0.9902,0)</t>
+  </si>
+  <si>
+    <t>(0.9408, 0)</t>
+  </si>
+  <si>
+    <t>(0.9626,0)</t>
+  </si>
+  <si>
+    <t>(0.9893,0)</t>
+  </si>
+  <si>
+    <t>(0.9572, 0.9519)</t>
+  </si>
+  <si>
+    <t>(0.9300, 0.4172)</t>
+  </si>
+  <si>
+    <t>(0.9256, 0.9253)</t>
+  </si>
+  <si>
+    <t>(0.9700, 0.8930)</t>
+  </si>
+  <si>
+    <t>(0.9947, 0.7171)</t>
+  </si>
+  <si>
+    <t>(0.9307, 0.9699)</t>
+  </si>
+  <si>
+    <t>(0.9609, 0.8437)</t>
+  </si>
+  <si>
+    <t>(0.9875, 0.8715)</t>
+  </si>
+  <si>
+    <t>(0.9926, 0.8891)</t>
+  </si>
+  <si>
+    <t>(0.9188, 0.9259)</t>
+  </si>
+  <si>
+    <t>(0.9579, 0.9565)</t>
+  </si>
+  <si>
+    <t>(0.9855, 0.8166)</t>
+  </si>
+  <si>
+    <t>(0.9467,0)</t>
+  </si>
+  <si>
+    <t>(0.9821,0)</t>
+  </si>
+  <si>
+    <t>(0.9782,0)</t>
+  </si>
+  <si>
+    <t>(0,0.9665)</t>
+  </si>
+  <si>
+    <t>(0.9480, 0.9533)</t>
+  </si>
+  <si>
+    <t>(0.9659, 0.9680)</t>
+  </si>
+  <si>
+    <t>(0.9300, 0.9316)</t>
+  </si>
+  <si>
+    <t>(0.9822, 0.8838)</t>
+  </si>
+  <si>
+    <t>(0.9776,1.0)</t>
+  </si>
+  <si>
+    <t>(0.9294, 0.8712)</t>
+  </si>
+  <si>
+    <t>(0.9756,0.9426)</t>
+  </si>
+  <si>
+    <t>(0.9849, 0.2649)</t>
+  </si>
+  <si>
+    <t>(0.9710,0)</t>
+  </si>
+  <si>
+    <t>(0.9826,0)</t>
+  </si>
+  <si>
+    <t>(0.9815, 0.8790)</t>
+  </si>
+  <si>
+    <t>(0.9881, 0.9117)</t>
+  </si>
+  <si>
+    <t>curve chart</t>
+  </si>
+  <si>
+    <t>acc=0.9249, loss=0.3083</t>
+  </si>
+  <si>
+    <t>acc=0.9276, loss=0.3329</t>
+  </si>
+  <si>
+    <t>acc=0.9058, loss=0.3772</t>
+  </si>
+  <si>
+    <t>acc=0.8435, loss=0.4537</t>
+  </si>
+  <si>
+    <t>acc=0.9260, loss=0.3088</t>
+  </si>
+  <si>
+    <t>acc=0.9068, loss=0.3998</t>
+  </si>
+  <si>
+    <t>acc=0.8763, loss=0.4193</t>
+  </si>
+  <si>
+    <t>acc=0.8236, loss=0.5140</t>
+  </si>
+  <si>
+    <t>acc=0.9189, loss=0.3180</t>
+  </si>
+  <si>
+    <t>acc=0.9108, loss=0.3626</t>
+  </si>
+  <si>
+    <t>acc=0.9077, loss=0.3463</t>
+  </si>
+  <si>
+    <t>acc=0.8783, loss=0.4344</t>
+  </si>
+  <si>
+    <t>acc=0.9256, loss=0.3052</t>
+  </si>
+  <si>
+    <t>acc=0.9084, loss=0.3487</t>
+  </si>
+  <si>
+    <t>acc=0.9183, loss=0.2811</t>
+  </si>
+  <si>
+    <t>acc=0.8406, loss=0.4639</t>
+  </si>
+  <si>
+    <t>acc=0.8334, loss=1.3433</t>
+  </si>
+  <si>
+    <t>acc=0.9272, loss=0.2870</t>
+  </si>
+  <si>
+    <t>acc=0.9093, loss=0.3997</t>
+  </si>
+  <si>
+    <t>ours (mal-frac, non-iid=0.5)</t>
+  </si>
+  <si>
+    <t>acc=0.9027, loss=0.3242</t>
+  </si>
+  <si>
+    <t>acc=0.7155, loss=7.8219</t>
+  </si>
+  <si>
+    <t>acc=0.8939, loss=0.8077</t>
+  </si>
+  <si>
+    <t>acc=0.8645, loss=1.9420</t>
+  </si>
+  <si>
+    <t>acc=0.1490, loss=2.2956</t>
+  </si>
+  <si>
+    <t>acc=0.1009, loss=2.3021</t>
+  </si>
+  <si>
+    <t>acc=0.9207, loss=0.3414</t>
+  </si>
+  <si>
+    <t>acc=0.8861, loss=1.2616</t>
+  </si>
+  <si>
+    <t>acc=0.9192, loss=1.6856</t>
+  </si>
+  <si>
+    <t>acc=0.9306, loss=0.2578</t>
+  </si>
+  <si>
+    <t>acc=0.9253, loss=0.3090</t>
+  </si>
+  <si>
+    <t>acc=0.8877, loss=1.4412</t>
+  </si>
+  <si>
+    <t>acc=0.4360, loss=1.7029</t>
+  </si>
+  <si>
+    <t>flame+incentives (mal-frac, non-iid=0.5)</t>
+  </si>
+  <si>
+    <t>Benign stake</t>
+  </si>
+  <si>
+    <t>Malicious stake</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -787,8 +1338,15 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -808,6 +1366,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -994,7 +1558,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1007,6 +1571,28 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1040,52 +1626,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1449,315 +2005,315 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B3" s="17"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10" t="s">
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10" t="s">
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10" t="s">
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="10" t="s">
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10" t="s">
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10" t="s">
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10" t="s">
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10" t="s">
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10" t="s">
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10" t="s">
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10" t="s">
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10" t="s">
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10" t="s">
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10" t="s">
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="11" t="s">
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="11" t="s">
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="11" t="s">
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="13"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="31"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="10" t="s">
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10" t="s">
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10" t="s">
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="11" t="s">
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="11" t="s">
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="11" t="s">
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="13"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="31"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="10" t="s">
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10" t="s">
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10" t="s">
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
     </row>
     <row r="12" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="14" t="s">
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14" t="s">
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14" t="s">
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
@@ -1852,7 +2408,7 @@
       <c r="N14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O14" s="21" t="s">
+      <c r="O14" s="10" t="s">
         <v>30</v>
       </c>
       <c r="P14" s="8" t="s">
@@ -1905,7 +2461,7 @@
       <c r="N15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O15" s="21" t="s">
+      <c r="O15" s="10" t="s">
         <v>30</v>
       </c>
       <c r="P15" s="8" t="s">
@@ -1958,7 +2514,7 @@
       <c r="N16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O16" s="21" t="s">
+      <c r="O16" s="10" t="s">
         <v>31</v>
       </c>
       <c r="P16" s="8" t="s">
@@ -2093,7 +2649,7 @@
       <c r="F19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="10" t="s">
         <v>49</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -2105,7 +2661,7 @@
       <c r="J19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K19" s="21" t="s">
+      <c r="K19" s="10" t="s">
         <v>114</v>
       </c>
       <c r="L19" s="1" t="s">
@@ -2117,7 +2673,7 @@
       <c r="N19" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="O19" s="21" t="s">
+      <c r="O19" s="10" t="s">
         <v>70</v>
       </c>
       <c r="P19" s="8" t="s">
@@ -2146,7 +2702,7 @@
       <c r="F20" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="10" t="s">
         <v>50</v>
       </c>
       <c r="H20" s="7" t="s">
@@ -2158,7 +2714,7 @@
       <c r="J20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K20" s="21" t="s">
+      <c r="K20" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L20" s="6" t="s">
@@ -2170,7 +2726,7 @@
       <c r="N20" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="O20" s="21" t="s">
+      <c r="O20" s="10" t="s">
         <v>71</v>
       </c>
       <c r="P20" s="8" t="s">
@@ -2611,30 +3167,30 @@
       <c r="B30" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10" t="s">
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10" t="s">
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10" t="s">
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="46">
@@ -2691,357 +3247,357 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CB7C94-F44F-4F4D-8C11-E89304176B27}">
-  <dimension ref="B2:U42"/>
+  <dimension ref="B2:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="F9" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18.1640625" customWidth="1"/>
     <col min="3" max="3" width="30.83203125" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="31"/>
-    <col min="9" max="10" width="10.83203125" style="25"/>
-    <col min="11" max="11" width="10.83203125" style="40"/>
-    <col min="12" max="12" width="10.83203125" style="31"/>
-    <col min="13" max="13" width="10.83203125" style="25" customWidth="1"/>
-    <col min="14" max="15" width="10.83203125" style="25"/>
-    <col min="16" max="19" width="10.83203125" style="28"/>
+    <col min="8" max="8" width="10.83203125" style="20"/>
+    <col min="9" max="10" width="10.83203125" style="14"/>
+    <col min="11" max="11" width="10.83203125" style="22"/>
+    <col min="12" max="12" width="10.83203125" style="20"/>
+    <col min="13" max="13" width="10.83203125" style="14" customWidth="1"/>
+    <col min="14" max="15" width="10.83203125" style="14"/>
+    <col min="16" max="19" width="10.83203125" style="17"/>
     <col min="21" max="21" width="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
       <c r="U2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C3" s="17"/>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="34" t="s">
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="10" t="s">
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10" t="s">
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
     </row>
     <row r="4" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="35" t="s">
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="10" t="s">
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10" t="s">
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
       <c r="U4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="34" t="s">
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="10" t="s">
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10" t="s">
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
       <c r="U5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="34" t="s">
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="10" t="s">
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10" t="s">
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
       <c r="U6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="34" t="s">
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="10" t="s">
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10" t="s">
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
       <c r="U7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="36" t="s">
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="11" t="s">
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="11" t="s">
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="13"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="31"/>
       <c r="U8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="34" t="s">
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="10" t="s">
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10" t="s">
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
       <c r="U9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="36" t="s">
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="11" t="s">
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="11" t="s">
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="13"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="31"/>
     </row>
     <row r="11" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="34" t="s">
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="10" t="s">
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10" t="s">
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
     </row>
     <row r="12" spans="3:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="39" t="s">
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="14" t="s">
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="M12" s="33"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14" t="s">
+      <c r="M12" s="39"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
     </row>
     <row r="13" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C13" s="4" t="s">
@@ -3059,40 +3615,40 @@
       <c r="G13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="22" t="s">
+      <c r="J13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="29" t="s">
+      <c r="L13" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="23" t="s">
+      <c r="M13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="22" t="s">
+      <c r="N13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="22" t="s">
+      <c r="O13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="P13" s="26" t="s">
+      <c r="P13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="Q13" s="26" t="s">
+      <c r="Q13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="R13" s="26" t="s">
+      <c r="R13" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="S13" s="26" t="s">
+      <c r="S13" s="15" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3112,40 +3668,40 @@
       <c r="G14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J14" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="30" t="s">
+      <c r="J14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="23" t="s">
+      <c r="M14" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="N14" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O14" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" s="27" t="s">
+      <c r="N14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="Q14" s="27" t="s">
+      <c r="Q14" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="R14" s="27" t="s">
+      <c r="R14" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="S14" s="27" t="s">
+      <c r="S14" s="16" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3165,40 +3721,40 @@
       <c r="G15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J15" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" s="30" t="s">
+      <c r="J15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="M15" s="23" t="s">
+      <c r="M15" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="N15" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O15" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="P15" s="27" t="s">
+      <c r="N15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="Q15" s="27" t="s">
+      <c r="Q15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="R15" s="27" t="s">
+      <c r="R15" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="S15" s="27" t="s">
+      <c r="S15" s="16" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3218,40 +3774,40 @@
       <c r="G16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="J16" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="L16" s="30" t="s">
+      <c r="J16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="23" t="s">
+      <c r="M16" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="N16" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O16" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="P16" s="27" t="s">
+      <c r="N16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="Q16" s="27" t="s">
+      <c r="Q16" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="R16" s="27" t="s">
+      <c r="R16" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="S16" s="27" t="s">
+      <c r="S16" s="16" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3271,40 +3827,40 @@
       <c r="G17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="23" t="s">
+      <c r="H17" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J17" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="M17" s="23" t="s">
+      <c r="J17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="N17" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O17" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="P17" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q17" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="R17" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="S17" s="27" t="s">
+      <c r="N17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="S17" s="16" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3324,40 +3880,40 @@
       <c r="G18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="23" t="s">
+      <c r="H18" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="J18" s="23" t="s">
+      <c r="J18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="30" t="s">
+      <c r="K18" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="L18" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="M18" s="23" t="s">
+      <c r="L18" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="N18" s="41" t="s">
+      <c r="N18" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="O18" s="41" t="s">
+      <c r="O18" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="P18" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="R18" s="27" t="s">
+      <c r="P18" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R18" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="S18" s="27" t="s">
+      <c r="S18" s="16" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3365,52 +3921,52 @@
       <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>198</v>
+      <c r="D19" s="10" t="s">
+        <v>197</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>183</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H19" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="H19" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="I19" s="23" t="s">
+      <c r="I19" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="J19" s="23" t="s">
+      <c r="J19" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="K19" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="L19" s="30" t="s">
+      <c r="K19" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="L19" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="M19" s="23" t="s">
+      <c r="M19" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="N19" s="23" t="s">
+      <c r="N19" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="O19" s="23" t="s">
+      <c r="O19" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="P19" s="27" t="s">
+      <c r="P19" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="Q19" s="27" t="s">
+      <c r="Q19" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="R19" s="27" t="s">
+      <c r="R19" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="S19" s="27" t="s">
+      <c r="S19" s="16" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3418,52 +3974,52 @@
       <c r="C20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="46" t="s">
-        <v>197</v>
+      <c r="D20" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>174</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="H20" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="H20" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="I20" s="32" t="s">
+      <c r="I20" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="J20" s="24" t="s">
+      <c r="J20" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="K20" s="30" t="s">
+      <c r="K20" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="L20" s="30" t="s">
+      <c r="L20" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="M20" s="24" t="s">
+      <c r="M20" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="N20" s="24" t="s">
+      <c r="N20" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="O20" s="24" t="s">
+      <c r="O20" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="P20" s="27" t="s">
+      <c r="P20" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="Q20" s="27" t="s">
+      <c r="Q20" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="R20" s="27" t="s">
+      <c r="R20" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="S20" s="27" t="s">
+      <c r="S20" s="16" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3483,44 +4039,44 @@
       <c r="G21" s="1">
         <v>0</v>
       </c>
-      <c r="H21" s="30">
-        <v>0</v>
-      </c>
-      <c r="I21" s="23">
-        <v>0</v>
-      </c>
-      <c r="J21" s="23">
-        <v>0</v>
-      </c>
-      <c r="K21" s="30">
-        <v>0</v>
-      </c>
-      <c r="L21" s="30" t="s">
+      <c r="H21" s="19">
+        <v>0</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0</v>
+      </c>
+      <c r="K21" s="19">
+        <v>0</v>
+      </c>
+      <c r="L21" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="M21" s="23" t="s">
+      <c r="M21" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="N21" s="23" t="s">
+      <c r="N21" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="O21" s="23" t="s">
+      <c r="O21" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="P21" s="27" t="s">
+      <c r="P21" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="Q21" s="27" t="s">
+      <c r="Q21" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="R21" s="27" t="s">
+      <c r="R21" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="S21" s="27" t="s">
+      <c r="S21" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="U21" s="42" t="s">
-        <v>195</v>
+      <c r="U21" s="24" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.2">
@@ -3539,40 +4095,40 @@
       <c r="G22" s="1">
         <v>0</v>
       </c>
-      <c r="H22" s="30">
-        <v>0</v>
-      </c>
-      <c r="I22" s="23">
-        <v>0</v>
-      </c>
-      <c r="J22" s="23">
-        <v>0</v>
-      </c>
-      <c r="K22" s="30">
-        <v>0</v>
-      </c>
-      <c r="L22" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="M22" s="23" t="s">
+      <c r="H22" s="19">
+        <v>0</v>
+      </c>
+      <c r="I22" s="12">
+        <v>0</v>
+      </c>
+      <c r="J22" s="12">
+        <v>0</v>
+      </c>
+      <c r="K22" s="19">
+        <v>0</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="N22" s="23" t="s">
+      <c r="N22" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="O22" s="23" t="s">
+      <c r="O22" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="P22" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q22" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="R22" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="S22" s="27" t="s">
+      <c r="P22" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q22" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R22" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="S22" s="16" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3592,40 +4148,40 @@
       <c r="G23" s="1">
         <v>0</v>
       </c>
-      <c r="H23" s="30">
-        <v>0</v>
-      </c>
-      <c r="I23" s="23">
-        <v>0</v>
-      </c>
-      <c r="J23" s="23">
-        <v>0</v>
-      </c>
-      <c r="K23" s="30">
-        <v>0</v>
-      </c>
-      <c r="L23" s="30" t="s">
+      <c r="H23" s="19">
+        <v>0</v>
+      </c>
+      <c r="I23" s="12">
+        <v>0</v>
+      </c>
+      <c r="J23" s="12">
+        <v>0</v>
+      </c>
+      <c r="K23" s="19">
+        <v>0</v>
+      </c>
+      <c r="L23" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="M23" s="23" t="s">
+      <c r="M23" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="N23" s="23" t="s">
+      <c r="N23" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="O23" s="23" t="s">
+      <c r="O23" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="P23" s="27" t="s">
+      <c r="P23" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="Q23" s="27" t="s">
+      <c r="Q23" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="R23" s="27" t="s">
+      <c r="R23" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="S23" s="27" t="s">
+      <c r="S23" s="16" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3645,40 +4201,40 @@
       <c r="G24" s="1">
         <v>0</v>
       </c>
-      <c r="H24" s="30">
-        <v>0</v>
-      </c>
-      <c r="I24" s="23">
-        <v>0</v>
-      </c>
-      <c r="J24" s="23">
-        <v>0</v>
-      </c>
-      <c r="K24" s="30">
-        <v>0</v>
-      </c>
-      <c r="L24" s="30" t="s">
+      <c r="H24" s="19">
+        <v>0</v>
+      </c>
+      <c r="I24" s="12">
+        <v>0</v>
+      </c>
+      <c r="J24" s="12">
+        <v>0</v>
+      </c>
+      <c r="K24" s="19">
+        <v>0</v>
+      </c>
+      <c r="L24" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="M24" s="23" t="s">
+      <c r="M24" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="N24" s="23" t="s">
+      <c r="N24" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="O24" s="23" t="s">
+      <c r="O24" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="P24" s="27" t="s">
+      <c r="P24" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="Q24" s="27" t="s">
+      <c r="Q24" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="R24" s="27" t="s">
+      <c r="R24" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="S24" s="27" t="s">
+      <c r="S24" s="16" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3698,40 +4254,40 @@
       <c r="G25" s="1">
         <v>0</v>
       </c>
-      <c r="H25" s="30">
-        <v>0</v>
-      </c>
-      <c r="I25" s="23">
-        <v>0</v>
-      </c>
-      <c r="J25" s="23">
-        <v>0</v>
-      </c>
-      <c r="K25" s="30">
-        <v>0</v>
-      </c>
-      <c r="L25" s="30" t="s">
+      <c r="H25" s="19">
+        <v>0</v>
+      </c>
+      <c r="I25" s="12">
+        <v>0</v>
+      </c>
+      <c r="J25" s="12">
+        <v>0</v>
+      </c>
+      <c r="K25" s="19">
+        <v>0</v>
+      </c>
+      <c r="L25" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="M25" s="23" t="s">
+      <c r="M25" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="N25" s="23" t="s">
+      <c r="N25" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="O25" s="23" t="s">
+      <c r="O25" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="P25" s="27" t="s">
+      <c r="P25" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="Q25" s="27" t="s">
+      <c r="Q25" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="R25" s="27" t="s">
+      <c r="R25" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="S25" s="27" t="s">
+      <c r="S25" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3751,40 +4307,40 @@
       <c r="G26" s="1">
         <v>0</v>
       </c>
-      <c r="H26" s="30">
-        <v>0</v>
-      </c>
-      <c r="I26" s="23">
-        <v>0</v>
-      </c>
-      <c r="J26" s="23">
-        <v>0</v>
-      </c>
-      <c r="K26" s="30">
-        <v>0</v>
-      </c>
-      <c r="L26" s="30" t="s">
+      <c r="H26" s="19">
+        <v>0</v>
+      </c>
+      <c r="I26" s="12">
+        <v>0</v>
+      </c>
+      <c r="J26" s="12">
+        <v>0</v>
+      </c>
+      <c r="K26" s="19">
+        <v>0</v>
+      </c>
+      <c r="L26" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="M26" s="23" t="s">
+      <c r="M26" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="N26" s="23" t="s">
+      <c r="N26" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="O26" s="23" t="s">
+      <c r="O26" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="P26" s="27" t="s">
+      <c r="P26" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="Q26" s="27" t="s">
+      <c r="Q26" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="R26" s="27" t="s">
+      <c r="R26" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="S26" s="27" t="s">
+      <c r="S26" s="16" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3804,40 +4360,40 @@
       <c r="G27" s="1">
         <v>0</v>
       </c>
-      <c r="H27" s="30">
-        <v>0</v>
-      </c>
-      <c r="I27" s="23">
-        <v>0</v>
-      </c>
-      <c r="J27" s="23">
-        <v>0</v>
-      </c>
-      <c r="K27" s="30">
-        <v>0</v>
-      </c>
-      <c r="L27" s="30" t="s">
+      <c r="H27" s="19">
+        <v>0</v>
+      </c>
+      <c r="I27" s="12">
+        <v>0</v>
+      </c>
+      <c r="J27" s="12">
+        <v>0</v>
+      </c>
+      <c r="K27" s="19">
+        <v>0</v>
+      </c>
+      <c r="L27" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="M27" s="23" t="s">
+      <c r="M27" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="N27" s="23" t="s">
+      <c r="N27" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="O27" s="23" t="s">
+      <c r="O27" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="P27" s="27" t="s">
+      <c r="P27" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="Q27" s="27" t="s">
+      <c r="Q27" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="R27" s="27" t="s">
+      <c r="R27" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="S27" s="27" t="s">
+      <c r="S27" s="16" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3857,183 +4413,225 @@
       <c r="G28" s="1">
         <v>0</v>
       </c>
-      <c r="H28" s="30">
-        <v>0</v>
-      </c>
-      <c r="I28" s="23">
-        <v>0</v>
-      </c>
-      <c r="J28" s="23">
-        <v>0</v>
-      </c>
-      <c r="K28" s="30">
-        <v>0</v>
-      </c>
-      <c r="L28" s="30" t="s">
+      <c r="H28" s="19">
+        <v>0</v>
+      </c>
+      <c r="I28" s="12">
+        <v>0</v>
+      </c>
+      <c r="J28" s="12">
+        <v>0</v>
+      </c>
+      <c r="K28" s="19">
+        <v>0</v>
+      </c>
+      <c r="L28" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="M28" s="23" t="s">
+      <c r="M28" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="N28" s="23" t="s">
+      <c r="N28" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="O28" s="23" t="s">
+      <c r="O28" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="P28" s="27" t="s">
+      <c r="P28" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="Q28" s="27" t="s">
+      <c r="Q28" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="R28" s="27" t="s">
+      <c r="R28" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="S28" s="27" t="s">
+      <c r="S28" s="16" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="K29" s="31"/>
+      <c r="C29" s="46" t="s">
+        <v>410</v>
+      </c>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B30" s="10" t="s">
+      <c r="C30" s="46" t="s">
+        <v>411</v>
+      </c>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="K31" s="20"/>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B32" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10" t="s">
+      <c r="C32" s="28"/>
+      <c r="D32" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="34" t="s">
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="10" t="s">
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10" t="s">
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-    </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>199</v>
-      </c>
-      <c r="C31">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>200</v>
-      </c>
-      <c r="C32" t="s">
-        <v>201</v>
-      </c>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>202</v>
-      </c>
-      <c r="C33" t="s">
-        <v>203</v>
+        <v>198</v>
+      </c>
+      <c r="C33">
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C35" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
+        <v>203</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>204</v>
+      </c>
+      <c r="C37" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>205</v>
+      </c>
+      <c r="C38" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B39" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="C36" s="45">
+      <c r="C39" s="26">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C40" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B41" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="C41" s="26">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B37" s="44" t="s">
-        <v>207</v>
-      </c>
-      <c r="C37" s="45">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B38" s="44" t="s">
-        <v>209</v>
-      </c>
-      <c r="C38" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B39" s="44" t="s">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B42" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="C39" s="45">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B40" s="44" t="s">
+      <c r="C42" t="s">
         <v>212</v>
       </c>
-      <c r="C40" t="s">
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B43" s="25" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B41" s="44" t="s">
+      <c r="C43" s="26">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B44" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="C41" s="45">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B42" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="C42" t="s">
-        <v>198</v>
+      <c r="C44" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="D12:G12"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:O12"/>
     <mergeCell ref="P12:S12"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="P32:S32"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:O10"/>
@@ -4074,247 +4672,564 @@
     <mergeCell ref="P3:S3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41EE9FDC-0730-F242-82CF-E9ACC597D6B6}">
-  <dimension ref="C2:T24"/>
+  <dimension ref="C2:U33"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" customWidth="1"/>
+    <col min="15" max="15" width="12.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="E2" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-    </row>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="E3" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43" t="s">
-        <v>226</v>
-      </c>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-    </row>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="D4" t="s">
-        <v>222</v>
-      </c>
-      <c r="E4" s="4" t="s">
+    <row r="2" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+    </row>
+    <row r="3" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+    </row>
+    <row r="4" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+    </row>
+    <row r="5" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C5" s="41"/>
+    </row>
+    <row r="6" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C6" s="41"/>
+    </row>
+    <row r="7" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C7" s="41"/>
+    </row>
+    <row r="8" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C8" s="41"/>
+      <c r="D8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="K8" t="s">
+        <v>230</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+    </row>
+    <row r="9" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C9" s="41"/>
+      <c r="D9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E9" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F9" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G9" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H9" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="K9" t="s">
+        <v>227</v>
+      </c>
+      <c r="L9" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="M9" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="N9" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="O9" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="4" t="s">
+    </row>
+    <row r="10" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C10" s="41"/>
+      <c r="D10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="H10" t="s">
+        <v>232</v>
+      </c>
+      <c r="K10" t="s">
+        <v>209</v>
+      </c>
+      <c r="L10" t="s">
+        <v>253</v>
+      </c>
+      <c r="M10" t="s">
+        <v>254</v>
+      </c>
+      <c r="N10" t="s">
+        <v>250</v>
+      </c>
+      <c r="O10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C11" s="41"/>
+      <c r="D11" t="s">
+        <v>228</v>
+      </c>
+      <c r="E11" t="s">
+        <v>232</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" t="s">
+        <v>232</v>
+      </c>
+      <c r="K11" t="s">
+        <v>228</v>
+      </c>
+      <c r="L11" t="s">
+        <v>232</v>
+      </c>
+      <c r="M11" t="s">
+        <v>250</v>
+      </c>
+      <c r="N11" t="s">
+        <v>251</v>
+      </c>
+      <c r="O11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C12" s="41"/>
+      <c r="D12" t="s">
+        <v>212</v>
+      </c>
+      <c r="E12" t="s">
+        <v>232</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" t="s">
+        <v>212</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="N12" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C13" s="41"/>
+      <c r="D13" t="s">
+        <v>229</v>
+      </c>
+      <c r="E13" t="s">
+        <v>232</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" t="s">
+        <v>229</v>
+      </c>
+      <c r="L13" t="s">
+        <v>232</v>
+      </c>
+      <c r="M13" t="s">
+        <v>53</v>
+      </c>
+      <c r="N13" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="O13" s="48" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C14" s="41"/>
+      <c r="D14" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="G14" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="H14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" t="s">
+        <v>197</v>
+      </c>
+      <c r="L14" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="M14" t="s">
+        <v>51</v>
+      </c>
+      <c r="N14" t="s">
+        <v>232</v>
+      </c>
+      <c r="O14" s="48" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C15" s="41"/>
+    </row>
+    <row r="16" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C16" s="41"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C17" s="41"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C18" s="41"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C19" s="41"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C20" s="41"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C21" s="41"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C22" s="41"/>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="K22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C23" s="41"/>
+      <c r="D23" t="s">
+        <v>227</v>
+      </c>
+      <c r="E23" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="F23" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="G23" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="H23" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="K23" t="s">
+        <v>227</v>
+      </c>
+      <c r="L23" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="M23" t="s">
         <v>21</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="N23" t="s">
         <v>22</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="O23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C5" s="43"/>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C6" s="43"/>
-      <c r="D6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C7" s="43"/>
-      <c r="D7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C8" s="43"/>
-      <c r="D8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C9" s="43"/>
-      <c r="D9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C10" s="43"/>
-      <c r="D10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C11" s="43"/>
-      <c r="D11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C12" s="43"/>
-      <c r="D12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C13" s="43"/>
-      <c r="D13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C14" s="43"/>
-      <c r="D14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C15" s="43"/>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C16" s="43"/>
-      <c r="D16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C17" s="43"/>
-      <c r="D17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C18" s="43"/>
-      <c r="D18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C19" s="43"/>
-      <c r="D19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C20" s="43"/>
-      <c r="D20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C21" s="43"/>
-      <c r="D21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C22" s="43"/>
-      <c r="D22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C23" s="43"/>
-      <c r="D23">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C24" s="43"/>
-      <c r="D24">
-        <v>10</v>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C24" s="41"/>
+      <c r="D24" t="s">
+        <v>209</v>
+      </c>
+      <c r="E24" t="s">
+        <v>232</v>
+      </c>
+      <c r="F24" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="G24" t="s">
+        <v>233</v>
+      </c>
+      <c r="H24" t="s">
+        <v>232</v>
+      </c>
+      <c r="K24" t="s">
+        <v>209</v>
+      </c>
+      <c r="L24" t="s">
+        <v>232</v>
+      </c>
+      <c r="M24" t="s">
+        <v>254</v>
+      </c>
+      <c r="N24" t="s">
+        <v>250</v>
+      </c>
+      <c r="O24" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>228</v>
+      </c>
+      <c r="E25" t="s">
+        <v>232</v>
+      </c>
+      <c r="F25" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="G25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" t="s">
+        <v>232</v>
+      </c>
+      <c r="K25" t="s">
+        <v>228</v>
+      </c>
+      <c r="L25" t="s">
+        <v>232</v>
+      </c>
+      <c r="M25" t="s">
+        <v>250</v>
+      </c>
+      <c r="N25" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="O25" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>212</v>
+      </c>
+      <c r="E26" t="s">
+        <v>232</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="G26" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K26" t="s">
+        <v>212</v>
+      </c>
+      <c r="L26" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="N26" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="O26" s="49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>229</v>
+      </c>
+      <c r="E27" t="s">
+        <v>232</v>
+      </c>
+      <c r="F27" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="G27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" t="s">
+        <v>77</v>
+      </c>
+      <c r="K27" t="s">
+        <v>229</v>
+      </c>
+      <c r="L27" t="s">
+        <v>232</v>
+      </c>
+      <c r="M27" t="s">
+        <v>53</v>
+      </c>
+      <c r="N27" t="s">
+        <v>251</v>
+      </c>
+      <c r="O27" s="48" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="G28" t="s">
+        <v>235</v>
+      </c>
+      <c r="H28" t="s">
+        <v>77</v>
+      </c>
+      <c r="K28" t="s">
+        <v>197</v>
+      </c>
+      <c r="L28" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="M28" t="s">
+        <v>255</v>
+      </c>
+      <c r="N28" t="s">
+        <v>256</v>
+      </c>
+      <c r="O28" s="48" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E2:T2"/>
-    <mergeCell ref="C5:C14"/>
-    <mergeCell ref="C15:C24"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:T3"/>
+  <mergeCells count="4">
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="L22:O22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4322,10 +5237,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E848A470-5877-7D43-A9CA-CD8F26697619}">
-  <dimension ref="C31:D31"/>
+  <dimension ref="D2:T32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:G23"/>
+    <sheetView topLeftCell="G1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4333,14 +5248,1352 @@
     <col min="2" max="2" width="7.33203125" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" customWidth="1"/>
     <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="12" max="13" width="13.1640625" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" customWidth="1"/>
+    <col min="17" max="17" width="12.5" customWidth="1"/>
+    <col min="18" max="18" width="13.1640625" customWidth="1"/>
+    <col min="19" max="19" width="12.5" customWidth="1"/>
+    <col min="20" max="20" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="L2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M2" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+    </row>
+    <row r="3" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="L3" t="s">
+        <v>240</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="L4" t="s">
+        <v>228</v>
+      </c>
+      <c r="M4" t="s">
+        <v>239</v>
+      </c>
+      <c r="N4" t="s">
+        <v>242</v>
+      </c>
+      <c r="O4" t="s">
+        <v>77</v>
+      </c>
+      <c r="P4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>232</v>
+      </c>
+      <c r="R4" t="s">
+        <v>233</v>
+      </c>
+      <c r="S4" t="s">
+        <v>251</v>
+      </c>
+      <c r="T4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="L5" t="s">
+        <v>212</v>
+      </c>
+      <c r="M5" t="s">
+        <v>244</v>
+      </c>
+      <c r="N5" t="s">
+        <v>245</v>
+      </c>
+      <c r="O5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>232</v>
+      </c>
+      <c r="R5" t="s">
+        <v>53</v>
+      </c>
+      <c r="S5" t="s">
+        <v>251</v>
+      </c>
+      <c r="T5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="L6" t="s">
+        <v>229</v>
+      </c>
+      <c r="M6" t="s">
+        <v>232</v>
+      </c>
+      <c r="N6" t="s">
+        <v>233</v>
+      </c>
+      <c r="O6" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>232</v>
+      </c>
+      <c r="R6" t="s">
+        <v>250</v>
+      </c>
+      <c r="S6" t="s">
+        <v>251</v>
+      </c>
+      <c r="T6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="L7" t="s">
+        <v>197</v>
+      </c>
+      <c r="M7" t="s">
+        <v>232</v>
+      </c>
+      <c r="N7" t="s">
+        <v>232</v>
+      </c>
+      <c r="O7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="L8" t="s">
+        <v>238</v>
+      </c>
+      <c r="M8" t="s">
+        <v>232</v>
+      </c>
+      <c r="N8" t="s">
+        <v>233</v>
+      </c>
+      <c r="O8" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>232</v>
+      </c>
+      <c r="R8" t="s">
+        <v>248</v>
+      </c>
+      <c r="S8" t="s">
+        <v>251</v>
+      </c>
+      <c r="T8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="L16" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+    </row>
+    <row r="17" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="L17" t="s">
+        <v>240</v>
+      </c>
+      <c r="M17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" t="s">
+        <v>22</v>
+      </c>
+      <c r="P17" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>20</v>
+      </c>
+      <c r="R17" t="s">
+        <v>21</v>
+      </c>
+      <c r="S17" t="s">
+        <v>22</v>
+      </c>
+      <c r="T17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="L18" t="s">
+        <v>228</v>
+      </c>
+      <c r="M18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N18" t="s">
+        <v>243</v>
+      </c>
+      <c r="O18" t="s">
+        <v>77</v>
+      </c>
+      <c r="P18" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>232</v>
+      </c>
+      <c r="R18" t="s">
+        <v>233</v>
+      </c>
+      <c r="S18" t="s">
+        <v>251</v>
+      </c>
+      <c r="T18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="L19" t="s">
+        <v>212</v>
+      </c>
+      <c r="M19" t="s">
+        <v>232</v>
+      </c>
+      <c r="N19" t="s">
+        <v>246</v>
+      </c>
+      <c r="O19" t="s">
+        <v>77</v>
+      </c>
+      <c r="P19" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>232</v>
+      </c>
+      <c r="R19" t="s">
+        <v>53</v>
+      </c>
+      <c r="S19" t="s">
+        <v>251</v>
+      </c>
+      <c r="T19" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="4:20" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L20" s="50" t="s">
+        <v>229</v>
+      </c>
+      <c r="M20" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="N20" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="O20" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="P20" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q20" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="R20" s="50" t="s">
+        <v>250</v>
+      </c>
+      <c r="S20" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="T20" s="50" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="L21" t="s">
+        <v>197</v>
+      </c>
+      <c r="M21" t="s">
+        <v>232</v>
+      </c>
+      <c r="N21" t="s">
+        <v>232</v>
+      </c>
+      <c r="O21" t="s">
+        <v>77</v>
+      </c>
+      <c r="P21" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q21" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="R21" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="S21" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="T21" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="L22" t="s">
+        <v>238</v>
+      </c>
+      <c r="M22" t="s">
+        <v>232</v>
+      </c>
+      <c r="N22" t="s">
+        <v>233</v>
+      </c>
+      <c r="O22" t="s">
+        <v>77</v>
+      </c>
+      <c r="P22" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>232</v>
+      </c>
+      <c r="R22" t="s">
+        <v>249</v>
+      </c>
+      <c r="S22" t="s">
+        <v>251</v>
+      </c>
+      <c r="T22" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="L29" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="31" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>223</v>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="32" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="Q16:T16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF7247D2-F4D3-0643-9E13-44328AAADF6E}">
+  <dimension ref="C7:N33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="7" width="22.1640625" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="22.33203125" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" customWidth="1"/>
+    <col min="13" max="13" width="21.5" customWidth="1"/>
+    <col min="14" max="14" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="J7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" t="s">
+        <v>227</v>
+      </c>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E9" t="s">
+        <v>260</v>
+      </c>
+      <c r="F9" t="s">
+        <v>261</v>
+      </c>
+      <c r="G9" t="s">
+        <v>262</v>
+      </c>
+      <c r="J9" t="s">
+        <v>209</v>
+      </c>
+      <c r="K9" t="s">
+        <v>376</v>
+      </c>
+      <c r="L9" t="s">
+        <v>380</v>
+      </c>
+      <c r="M9" t="s">
+        <v>384</v>
+      </c>
+      <c r="N9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>228</v>
+      </c>
+      <c r="D10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E10" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" t="s">
+        <v>270</v>
+      </c>
+      <c r="G10" t="s">
+        <v>273</v>
+      </c>
+      <c r="J10" t="s">
+        <v>228</v>
+      </c>
+      <c r="K10" t="s">
+        <v>377</v>
+      </c>
+      <c r="L10" t="s">
+        <v>381</v>
+      </c>
+      <c r="M10" t="s">
+        <v>385</v>
+      </c>
+      <c r="N10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" t="s">
+        <v>265</v>
+      </c>
+      <c r="E11" t="s">
+        <v>268</v>
+      </c>
+      <c r="F11" t="s">
+        <v>271</v>
+      </c>
+      <c r="G11" t="s">
+        <v>274</v>
+      </c>
+      <c r="J11" t="s">
+        <v>212</v>
+      </c>
+      <c r="K11" t="s">
+        <v>296</v>
+      </c>
+      <c r="L11" t="s">
+        <v>297</v>
+      </c>
+      <c r="M11" t="s">
+        <v>298</v>
+      </c>
+      <c r="N11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E12" t="s">
+        <v>269</v>
+      </c>
+      <c r="F12" t="s">
+        <v>272</v>
+      </c>
+      <c r="G12" t="s">
+        <v>275</v>
+      </c>
+      <c r="J12" t="s">
+        <v>229</v>
+      </c>
+      <c r="K12" t="s">
+        <v>378</v>
+      </c>
+      <c r="L12" t="s">
+        <v>382</v>
+      </c>
+      <c r="M12" t="s">
+        <v>386</v>
+      </c>
+      <c r="N12" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" t="s">
+        <v>296</v>
+      </c>
+      <c r="E13" t="s">
+        <v>297</v>
+      </c>
+      <c r="F13" t="s">
+        <v>298</v>
+      </c>
+      <c r="G13" t="s">
+        <v>299</v>
+      </c>
+      <c r="J13" t="s">
+        <v>197</v>
+      </c>
+      <c r="K13" t="s">
+        <v>379</v>
+      </c>
+      <c r="L13" t="s">
+        <v>383</v>
+      </c>
+      <c r="M13" t="s">
+        <v>387</v>
+      </c>
+      <c r="N13" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>258</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>263</v>
+      </c>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="J21" t="s">
+        <v>258</v>
+      </c>
+      <c r="K21" s="40" t="s">
+        <v>409</v>
+      </c>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>240</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" t="s">
+        <v>227</v>
+      </c>
+      <c r="K22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>238</v>
+      </c>
+      <c r="D23" t="s">
+        <v>276</v>
+      </c>
+      <c r="E23" t="s">
+        <v>280</v>
+      </c>
+      <c r="F23" t="s">
+        <v>284</v>
+      </c>
+      <c r="G23" t="s">
+        <v>288</v>
+      </c>
+      <c r="J23" t="s">
+        <v>209</v>
+      </c>
+      <c r="K23" t="s">
+        <v>393</v>
+      </c>
+      <c r="L23" t="s">
+        <v>398</v>
+      </c>
+      <c r="M23" t="s">
+        <v>402</v>
+      </c>
+      <c r="N23" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>228</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="E24" t="s">
+        <v>281</v>
+      </c>
+      <c r="F24" t="s">
+        <v>285</v>
+      </c>
+      <c r="G24" t="s">
+        <v>289</v>
+      </c>
+      <c r="J24" t="s">
+        <v>228</v>
+      </c>
+      <c r="K24" t="s">
+        <v>394</v>
+      </c>
+      <c r="L24" t="s">
+        <v>399</v>
+      </c>
+      <c r="M24" t="s">
+        <v>403</v>
+      </c>
+      <c r="N24" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D25" t="s">
+        <v>278</v>
+      </c>
+      <c r="E25" t="s">
+        <v>282</v>
+      </c>
+      <c r="F25" t="s">
+        <v>286</v>
+      </c>
+      <c r="G25" t="s">
+        <v>290</v>
+      </c>
+      <c r="J25" t="s">
+        <v>212</v>
+      </c>
+      <c r="K25" t="s">
+        <v>292</v>
+      </c>
+      <c r="L25" s="48" t="s">
+        <v>293</v>
+      </c>
+      <c r="M25" t="s">
+        <v>294</v>
+      </c>
+      <c r="N25" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>229</v>
+      </c>
+      <c r="D26" t="s">
+        <v>279</v>
+      </c>
+      <c r="E26" t="s">
+        <v>283</v>
+      </c>
+      <c r="F26" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="G26" s="48" t="s">
+        <v>291</v>
+      </c>
+      <c r="J26" t="s">
+        <v>229</v>
+      </c>
+      <c r="K26" t="s">
+        <v>396</v>
+      </c>
+      <c r="L26" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="M26" t="s">
+        <v>404</v>
+      </c>
+      <c r="N26" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D27" t="s">
+        <v>292</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>293</v>
+      </c>
+      <c r="F27" t="s">
+        <v>294</v>
+      </c>
+      <c r="G27" t="s">
+        <v>295</v>
+      </c>
+      <c r="J27" t="s">
+        <v>197</v>
+      </c>
+      <c r="K27" s="48" t="s">
+        <v>397</v>
+      </c>
+      <c r="L27" s="48" t="s">
+        <v>401</v>
+      </c>
+      <c r="M27" t="s">
+        <v>392</v>
+      </c>
+      <c r="N27" s="48" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K21:N21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D401AC-AFE0-D94F-B83A-2742B3526F9B}">
+  <dimension ref="C4:N25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="32.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="29.83203125" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" customWidth="1"/>
+    <col min="12" max="12" width="15.5" customWidth="1"/>
+    <col min="13" max="13" width="14.5" customWidth="1"/>
+    <col min="14" max="14" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="J4" t="s">
+        <v>304</v>
+      </c>
+      <c r="K4" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>227</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" t="s">
+        <v>313</v>
+      </c>
+      <c r="E6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F6" t="s">
+        <v>321</v>
+      </c>
+      <c r="G6" t="s">
+        <v>325</v>
+      </c>
+      <c r="J6" t="s">
+        <v>209</v>
+      </c>
+      <c r="K6" t="s">
+        <v>329</v>
+      </c>
+      <c r="L6" t="s">
+        <v>333</v>
+      </c>
+      <c r="M6" t="s">
+        <v>336</v>
+      </c>
+      <c r="N6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" t="s">
+        <v>314</v>
+      </c>
+      <c r="E7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G7" t="s">
+        <v>326</v>
+      </c>
+      <c r="J7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L7" t="s">
+        <v>334</v>
+      </c>
+      <c r="M7" t="s">
+        <v>337</v>
+      </c>
+      <c r="N7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E8" t="s">
+        <v>319</v>
+      </c>
+      <c r="F8" t="s">
+        <v>323</v>
+      </c>
+      <c r="G8" t="s">
+        <v>327</v>
+      </c>
+      <c r="J8" t="s">
+        <v>212</v>
+      </c>
+      <c r="K8" t="s">
+        <v>305</v>
+      </c>
+      <c r="L8" t="s">
+        <v>306</v>
+      </c>
+      <c r="M8" t="s">
+        <v>337</v>
+      </c>
+      <c r="N8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" t="s">
+        <v>316</v>
+      </c>
+      <c r="E9" t="s">
+        <v>320</v>
+      </c>
+      <c r="F9" t="s">
+        <v>324</v>
+      </c>
+      <c r="G9" t="s">
+        <v>328</v>
+      </c>
+      <c r="J9" t="s">
+        <v>229</v>
+      </c>
+      <c r="K9" t="s">
+        <v>331</v>
+      </c>
+      <c r="L9" t="s">
+        <v>335</v>
+      </c>
+      <c r="M9" t="s">
+        <v>338</v>
+      </c>
+      <c r="N9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" t="s">
+        <v>305</v>
+      </c>
+      <c r="E10" t="s">
+        <v>306</v>
+      </c>
+      <c r="F10" t="s">
+        <v>337</v>
+      </c>
+      <c r="G10" t="s">
+        <v>308</v>
+      </c>
+      <c r="J10" t="s">
+        <v>197</v>
+      </c>
+      <c r="K10" t="s">
+        <v>332</v>
+      </c>
+      <c r="L10" t="s">
+        <v>307</v>
+      </c>
+      <c r="M10" t="s">
+        <v>339</v>
+      </c>
+      <c r="N10" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>304</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="J19" t="s">
+        <v>304</v>
+      </c>
+      <c r="K19" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>240</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" t="s">
+        <v>227</v>
+      </c>
+      <c r="K20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>238</v>
+      </c>
+      <c r="D21" t="s">
+        <v>317</v>
+      </c>
+      <c r="E21" t="s">
+        <v>347</v>
+      </c>
+      <c r="F21" t="s">
+        <v>351</v>
+      </c>
+      <c r="G21" t="s">
+        <v>355</v>
+      </c>
+      <c r="J21" t="s">
+        <v>209</v>
+      </c>
+      <c r="K21" t="s">
+        <v>359</v>
+      </c>
+      <c r="L21" t="s">
+        <v>363</v>
+      </c>
+      <c r="M21" t="s">
+        <v>367</v>
+      </c>
+      <c r="N21" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>228</v>
+      </c>
+      <c r="D22" t="s">
+        <v>344</v>
+      </c>
+      <c r="E22" t="s">
+        <v>348</v>
+      </c>
+      <c r="F22" t="s">
+        <v>352</v>
+      </c>
+      <c r="G22" t="s">
+        <v>356</v>
+      </c>
+      <c r="J22" t="s">
+        <v>228</v>
+      </c>
+      <c r="K22" t="s">
+        <v>360</v>
+      </c>
+      <c r="L22" t="s">
+        <v>364</v>
+      </c>
+      <c r="M22" t="s">
+        <v>368</v>
+      </c>
+      <c r="N22" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>212</v>
+      </c>
+      <c r="D23" t="s">
+        <v>345</v>
+      </c>
+      <c r="E23" t="s">
+        <v>349</v>
+      </c>
+      <c r="F23" t="s">
+        <v>353</v>
+      </c>
+      <c r="G23" t="s">
+        <v>357</v>
+      </c>
+      <c r="J23" t="s">
+        <v>212</v>
+      </c>
+      <c r="K23" t="s">
+        <v>309</v>
+      </c>
+      <c r="L23" t="s">
+        <v>310</v>
+      </c>
+      <c r="M23" t="s">
+        <v>311</v>
+      </c>
+      <c r="N23" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>229</v>
+      </c>
+      <c r="D24" t="s">
+        <v>346</v>
+      </c>
+      <c r="E24" t="s">
+        <v>350</v>
+      </c>
+      <c r="F24" t="s">
+        <v>354</v>
+      </c>
+      <c r="G24" t="s">
+        <v>358</v>
+      </c>
+      <c r="J24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K24" t="s">
+        <v>361</v>
+      </c>
+      <c r="L24" t="s">
+        <v>365</v>
+      </c>
+      <c r="M24" t="s">
+        <v>369</v>
+      </c>
+      <c r="N24" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D25" t="s">
+        <v>309</v>
+      </c>
+      <c r="E25" t="s">
+        <v>310</v>
+      </c>
+      <c r="F25" t="s">
+        <v>311</v>
+      </c>
+      <c r="G25" t="s">
+        <v>312</v>
+      </c>
+      <c r="J25" t="s">
+        <v>197</v>
+      </c>
+      <c r="K25" t="s">
+        <v>362</v>
+      </c>
+      <c r="L25" t="s">
+        <v>366</v>
+      </c>
+      <c r="M25" t="s">
+        <v>370</v>
+      </c>
+      <c r="N25" t="s">
+        <v>374</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K19:N19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>